--- a/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>Lena Sadowska</t>
-  </si>
-  <si>
-    <t>Emilia Urbaniak</t>
-  </si>
-  <si>
-    <t>Maja Zawadzka</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
+    <t>Szymon Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Szymański</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -163,37 +163,37 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,40</t>
+    <t>2,80</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>6,00</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,90</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,70</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,70</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,50</t>
+    <t>8,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,24</t>
+    <t>25,99</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>29,15</t>
+    <t>19,73</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>25,07</t>
+    <t>27,05</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,77</t>
+    <t>19,70</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,22</t>
+    <t>9,31</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,59</t>
-  </si>
-  <si>
-    <t>19,02</t>
-  </si>
-  <si>
-    <t>18,34</t>
-  </si>
-  <si>
-    <t>6,69</t>
-  </si>
-  <si>
-    <t>21,90</t>
+    <t>13,00</t>
+  </si>
+  <si>
+    <t>28,98</t>
+  </si>
+  <si>
+    <t>25,85</t>
+  </si>
+  <si>
+    <t>30,97</t>
+  </si>
+  <si>
+    <t>6,65</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>16,85</t>
-  </si>
-  <si>
-    <t>6,57</t>
-  </si>
-  <si>
-    <t>6,15</t>
-  </si>
-  <si>
-    <t>22,65</t>
-  </si>
-  <si>
-    <t>26,38</t>
+    <t>24,68</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>7,92</t>
+  </si>
+  <si>
+    <t>30,15</t>
+  </si>
+  <si>
+    <t>2,84</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,25 +340,40 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Kacper</t>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
   </si>
   <si>
     <t>Kowalczyk</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Wilk</t>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
   </si>
   <si>
     <t>Maciejewska</t>
@@ -397,166 +412,139 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jan Piotrowski</t>
-  </si>
-  <si>
-    <t>28.02.1986</t>
-  </si>
-  <si>
-    <t>3 873,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Nowak</t>
-  </si>
-  <si>
-    <t>21.02.1988</t>
-  </si>
-  <si>
-    <t>9 717,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>14.03.2000</t>
-  </si>
-  <si>
-    <t>2 717,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Wojciechowski</t>
-  </si>
-  <si>
-    <t>23.12.1975</t>
-  </si>
-  <si>
-    <t>14 393,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Malinowska</t>
-  </si>
-  <si>
-    <t>22.01.1980</t>
-  </si>
-  <si>
-    <t>6 341,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>10.02.2005</t>
-  </si>
-  <si>
-    <t>6 540,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Rogalska</t>
-  </si>
-  <si>
-    <t>17.05.1987</t>
-  </si>
-  <si>
-    <t>4 606,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>07.06.1999</t>
-  </si>
-  <si>
-    <t>5 319,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Bednarska</t>
-  </si>
-  <si>
-    <t>04.11.1999</t>
-  </si>
-  <si>
-    <t>10 005,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>11.11.1983</t>
-  </si>
-  <si>
-    <t>6 230,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Górska</t>
-  </si>
-  <si>
-    <t>03.10.1981</t>
-  </si>
-  <si>
-    <t>10 755,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Borkowska</t>
-  </si>
-  <si>
-    <t>07.12.2001</t>
-  </si>
-  <si>
-    <t>11 113,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Bednarska</t>
-  </si>
-  <si>
-    <t>22.05.1984</t>
-  </si>
-  <si>
-    <t>12 035,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Nowak</t>
-  </si>
-  <si>
-    <t>22.07.1983</t>
-  </si>
-  <si>
-    <t>4 572,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Zawadzka</t>
-  </si>
-  <si>
-    <t>19.11.1998</t>
-  </si>
-  <si>
-    <t>8 702,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>05.02.1987</t>
-  </si>
-  <si>
-    <t>3 627,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Rogalska</t>
-  </si>
-  <si>
-    <t>10.11.1995</t>
-  </si>
-  <si>
-    <t>12 588,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>19.05.2002</t>
-  </si>
-  <si>
-    <t>3 959,00 zł</t>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>01.09.1992</t>
+  </si>
+  <si>
+    <t>2 522,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>04.08.1989</t>
+  </si>
+  <si>
+    <t>6 199,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>28.01.1987</t>
+  </si>
+  <si>
+    <t>8 188,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>05.07.1975</t>
+  </si>
+  <si>
+    <t>14 490,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>22.10.1992</t>
+  </si>
+  <si>
+    <t>4 086,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>26.08.1976</t>
+  </si>
+  <si>
+    <t>7 772,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>20.10.2002</t>
+  </si>
+  <si>
+    <t>3 422,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>05.04.1978</t>
+  </si>
+  <si>
+    <t>3 301,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>27.07.1980</t>
+  </si>
+  <si>
+    <t>2 726,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>11.03.1986</t>
+  </si>
+  <si>
+    <t>4 301,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>06.03.1976</t>
+  </si>
+  <si>
+    <t>5 934,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Krawczyk</t>
+  </si>
+  <si>
+    <t>13.06.1994</t>
+  </si>
+  <si>
+    <t>8 406,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>13.02.2002</t>
+  </si>
+  <si>
+    <t>5 213,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>19.12.1998</t>
+  </si>
+  <si>
+    <t>8 685,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>08.12.1996</t>
+  </si>
+  <si>
+    <t>6 518,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -628,322 +616,310 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 436,00 zł</t>
+  </si>
+  <si>
+    <t>1 666,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 477,00 zł</t>
+  </si>
+  <si>
+    <t>1 713,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 490,00 zł</t>
+  </si>
+  <si>
+    <t>1 743,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 284,00 zł</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 222,00 zł</t>
+  </si>
+  <si>
+    <t>1 491,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>683,00 zł</t>
+  </si>
+  <si>
+    <t>902,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 187,00 zł</t>
+  </si>
+  <si>
+    <t>1 543,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 165,00 zł</t>
-  </si>
-  <si>
-    <t>1 433,00 zł</t>
+    <t>1 259,00 zł</t>
+  </si>
+  <si>
+    <t>1 637,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>1 447,00 zł</t>
+  </si>
+  <si>
+    <t>1 592,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 019,00 zł</t>
+  </si>
+  <si>
+    <t>1 386,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 211,00 zł</t>
+  </si>
+  <si>
+    <t>1 356,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 163,00 zł</t>
+  </si>
+  <si>
+    <t>1 593,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>899,00 zł</t>
+  </si>
+  <si>
+    <t>1 169,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>1 129,00 zł</t>
+  </si>
+  <si>
+    <t>1 423,00 zł</t>
+  </si>
+  <si>
+    <t>743,00 zł</t>
+  </si>
+  <si>
+    <t>996,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>760,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 258,00 zł</t>
+  </si>
+  <si>
+    <t>1 736,00 zł</t>
+  </si>
+  <si>
+    <t>1 171,00 zł</t>
+  </si>
+  <si>
+    <t>1 417,00 zł</t>
+  </si>
+  <si>
+    <t>1 498,00 zł</t>
+  </si>
+  <si>
+    <t>1 858,00 zł</t>
+  </si>
+  <si>
+    <t>1 193,00 zł</t>
+  </si>
+  <si>
+    <t>1 527,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 577,00 zł</t>
+  </si>
+  <si>
+    <t>1 381,00 zł</t>
+  </si>
+  <si>
+    <t>1 906,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>1 711,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>1 192,00 zł</t>
+  </si>
+  <si>
+    <t>1 454,00 zł</t>
+  </si>
+  <si>
+    <t>608,00 zł</t>
+  </si>
+  <si>
+    <t>687,00 zł</t>
+  </si>
+  <si>
+    <t>1 149,00 zł</t>
+  </si>
+  <si>
+    <t>1 425,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>694,00 zł</t>
-  </si>
-  <si>
-    <t>965,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>507,00 zł</t>
-  </si>
-  <si>
-    <t>674,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
   </si>
   <si>
     <t>1 297,00 zł</t>
   </si>
   <si>
-    <t>1 660,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
-    <t>1 775,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>1 632,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 797,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>647,00 zł</t>
-  </si>
-  <si>
-    <t>873,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 459,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 326,00 zł</t>
-  </si>
-  <si>
-    <t>1 512,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 464,00 zł</t>
-  </si>
-  <si>
-    <t>1 918,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 671,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>728,00 zł</t>
-  </si>
-  <si>
-    <t>932,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 109,00 zł</t>
-  </si>
-  <si>
-    <t>1 530,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>536,00 zł</t>
-  </si>
-  <si>
-    <t>649,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
-    <t>1 642,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>720,00 zł</t>
-  </si>
-  <si>
-    <t>922,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>830,00 zł</t>
-  </si>
-  <si>
-    <t>1 038,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>709,00 zł</t>
-  </si>
-  <si>
-    <t>971,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>679,00 zł</t>
-  </si>
-  <si>
-    <t>835,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 555,00 zł</t>
-  </si>
-  <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 526,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>910,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 666,00 zł</t>
+    <t>572,00 zł</t>
+  </si>
+  <si>
+    <t>761,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1500,19 +1476,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1521,16 +1497,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
@@ -1542,16 +1518,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1569,13 +1545,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1584,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1593,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1605,10 +1581,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
@@ -1629,16 +1605,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1647,16 +1623,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
-        <v>6</v>
-      </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -1668,19 +1644,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1689,16 +1665,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1710,19 +1686,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1737,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -1880,7 +1856,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1895,7 +1871,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1910,7 +1886,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1925,7 +1901,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1940,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2057,7 +2033,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2069,7 +2045,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2081,7 +2057,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2093,7 +2069,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2105,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2153,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2165,7 +2141,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2177,7 +2153,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2189,7 +2165,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2201,7 +2177,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2249,7 +2225,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2261,7 +2237,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2273,7 +2249,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2285,7 +2261,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2297,7 +2273,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2331,10 +2307,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2440,7 +2416,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -2449,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2466,31 +2442,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2504,25 +2480,25 @@
         <v>110</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2536,25 +2512,25 @@
         <v>112</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2562,28 +2538,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -2592,42 +2568,106 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,10 +2680,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2655,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2665,265 +2705,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B30" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2941,10 +2948,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2960,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2970,75 +2977,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3046,22 +3053,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3069,22 +3076,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3092,22 +3099,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3115,22 +3122,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3138,22 +3145,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3161,22 +3168,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3184,22 +3191,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3207,22 +3214,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3230,22 +3237,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3253,22 +3260,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3276,22 +3283,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3299,22 +3306,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3322,22 +3329,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3345,22 +3352,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3368,22 +3375,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3391,22 +3398,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3414,22 +3421,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3437,22 +3444,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3460,22 +3467,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3483,22 +3490,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3506,22 +3513,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3529,22 +3536,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3552,22 +3559,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3575,22 +3582,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3598,22 +3605,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3621,22 +3628,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3644,22 +3651,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3667,90 +3674,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>298</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,80</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>6,00</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,90</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,70</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>8,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>25,99</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,73</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>27,05</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,70</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>9,31</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>13,00</t>
-  </si>
-  <si>
-    <t>28,98</t>
-  </si>
-  <si>
-    <t>25,85</t>
-  </si>
-  <si>
-    <t>30,97</t>
-  </si>
-  <si>
-    <t>6,65</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>24,68</t>
-  </si>
-  <si>
-    <t>1,70</t>
-  </si>
-  <si>
-    <t>7,92</t>
-  </si>
-  <si>
-    <t>30,15</t>
-  </si>
-  <si>
-    <t>2,84</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,135 +340,90 @@
     <t>01.09.1992</t>
   </si>
   <si>
-    <t>2 522,00 zł</t>
-  </si>
-  <si>
     <t>Adam Wójcik</t>
   </si>
   <si>
     <t>04.08.1989</t>
   </si>
   <si>
-    <t>6 199,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Lewandowski</t>
   </si>
   <si>
     <t>28.01.1987</t>
   </si>
   <si>
-    <t>8 188,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Górska</t>
   </si>
   <si>
     <t>05.07.1975</t>
   </si>
   <si>
-    <t>14 490,00 zł</t>
-  </si>
-  <si>
     <t>Maja Olszewska</t>
   </si>
   <si>
     <t>22.10.1992</t>
   </si>
   <si>
-    <t>4 086,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Zieliński</t>
   </si>
   <si>
     <t>26.08.1976</t>
   </si>
   <si>
-    <t>7 772,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kamiński</t>
   </si>
   <si>
     <t>20.10.2002</t>
   </si>
   <si>
-    <t>3 422,00 zł</t>
-  </si>
-  <si>
     <t>Filip Grabowski</t>
   </si>
   <si>
     <t>05.04.1978</t>
   </si>
   <si>
-    <t>3 301,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>27.07.1980</t>
   </si>
   <si>
-    <t>2 726,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kaźmierczak</t>
   </si>
   <si>
     <t>11.03.1986</t>
   </si>
   <si>
-    <t>4 301,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>06.03.1976</t>
   </si>
   <si>
-    <t>5 934,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Krawczyk</t>
   </si>
   <si>
     <t>13.06.1994</t>
   </si>
   <si>
-    <t>8 406,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Maciejewska</t>
   </si>
   <si>
     <t>13.02.2002</t>
   </si>
   <si>
-    <t>5 213,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Jaworska</t>
   </si>
   <si>
     <t>19.12.1998</t>
   </si>
   <si>
-    <t>8 685,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kamiński</t>
   </si>
   <si>
     <t>08.12.1996</t>
   </si>
   <si>
-    <t>6 518,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -559,9 +436,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -622,12 +496,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 666,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -640,24 +508,12 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>1 713,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 743,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -670,24 +526,12 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 284,00 zł</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>1 491,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
@@ -697,48 +541,24 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>683,00 zł</t>
-  </si>
-  <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
-    <t>1 543,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>1 637,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 592,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -748,36 +568,18 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 163,00 zł</t>
-  </si>
-  <si>
-    <t>1 593,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -790,27 +592,9 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>743,00 zł</t>
-  </si>
-  <si>
-    <t>996,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -820,106 +604,31 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>1 736,00 zł</t>
-  </si>
-  <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
-    <t>1 858,00 zł</t>
-  </si>
-  <si>
-    <t>1 193,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 577,00 zł</t>
-  </si>
-  <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 906,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 711,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>1 192,00 zł</t>
-  </si>
-  <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
-    <t>608,00 zł</t>
-  </si>
-  <si>
-    <t>687,00 zł</t>
-  </si>
-  <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 425,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
-    <t>1 297,00 zł</t>
-  </si>
-  <si>
-    <t>572,00 zł</t>
-  </si>
-  <si>
-    <t>761,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -941,7 +650,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -998,14 +709,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1016,8 +727,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1048,30 +759,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,7 +1086,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,25 +1161,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1490,7 +1202,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1511,7 +1223,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1532,7 +1244,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1553,7 +1265,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1574,7 +1286,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1595,7 +1307,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1616,7 +1328,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1637,7 +1349,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1658,7 +1370,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1679,7 +1391,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1700,7 +1412,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1721,27 +1433,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1775,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1795,7 +1497,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1805,29 +1507,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1835,99 +1537,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.8</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.9</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.9</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.7</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1960,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1985,113 +1687,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>25.99</v>
       </c>
       <c r="C15" s="3">
         <v>25</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>19.73</v>
       </c>
       <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>27.050000000000001</v>
       </c>
       <c r="C17" s="3">
         <v>30</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19.7</v>
       </c>
       <c r="C18" s="3">
         <v>23</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>9.31</v>
       </c>
       <c r="C19" s="3">
         <v>23</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2100,94 +1802,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <v>48</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>28.98</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25.85</v>
       </c>
       <c r="C26" s="3">
         <v>39</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>30.97</v>
       </c>
       <c r="C27" s="3">
         <v>38</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6.65</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2196,98 +1898,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>24.68</v>
       </c>
       <c r="C33" s="3">
         <v>13</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.7</v>
       </c>
       <c r="C34" s="3">
         <v>21</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.92</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>30.15</v>
       </c>
       <c r="C36" s="3">
         <v>36</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2.84</v>
       </c>
       <c r="C37" s="3">
         <v>38</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2310,7 +2012,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2330,90 +2032,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2436,16 +2138,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2468,16 +2170,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2500,16 +2202,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2532,16 +2234,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2564,16 +2266,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -2596,16 +2298,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2628,40 +2330,40 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2694,244 +2396,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2522</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6199</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14490</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4086</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7772</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3422</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3301</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2726</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4301</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5934</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8406</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5213</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8685</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6518</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>175</v>
+      <c r="A28" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2966,86 +2662,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>180</v>
+      <c r="A1" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>197</v>
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3053,22 +2749,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1666</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3076,22 +2772,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1477</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1713</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3099,22 +2795,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1490</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1743</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3122,22 +2818,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1438</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3145,22 +2841,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1222</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1491</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3168,22 +2864,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>683</v>
+      </c>
+      <c r="E21" s="7">
+        <v>902</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3191,22 +2887,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1543</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3214,22 +2910,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1259</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1637</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3237,22 +2933,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1447</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1592</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3260,22 +2956,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1386</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3283,22 +2979,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>247</v>
+        <v>176</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1211</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1356</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3306,22 +3002,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1163</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1593</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3329,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="7">
+        <v>899</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1169</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3352,22 +3048,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>260</v>
+        <v>163</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1129</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1423</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3375,22 +3071,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>181</v>
+      </c>
+      <c r="D30" s="7">
+        <v>743</v>
+      </c>
+      <c r="E30" s="7">
+        <v>996</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3398,22 +3094,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
+      </c>
+      <c r="D31" s="7">
+        <v>760</v>
+      </c>
+      <c r="E31" s="7">
+        <v>996</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3421,22 +3117,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1258</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1736</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3444,22 +3140,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1171</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1417</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3467,22 +3163,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>185</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1498</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1858</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3490,22 +3186,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>157</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1193</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1527</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3513,22 +3209,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>193</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1577</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3536,22 +3232,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1381</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1906</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3559,22 +3255,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
+        <v>199</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1711</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3582,22 +3278,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1192</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1454</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3605,22 +3301,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>185</v>
+      </c>
+      <c r="D40" s="7">
+        <v>608</v>
+      </c>
+      <c r="E40" s="7">
+        <v>687</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3628,22 +3324,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>293</v>
+        <v>193</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1149</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1425</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3651,22 +3347,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>297</v>
+        <v>172</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1118</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1297</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3674,68 +3370,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>299</v>
+        <v>157</v>
+      </c>
+      <c r="D43" s="7">
+        <v>572</v>
+      </c>
+      <c r="E43" s="7">
+        <v>761</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>175</v>
+      <c r="A46" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_038.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 1</t>
   </si>
@@ -61,382 +62,391 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Zuzanna Malinowska</t>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Oliwia Malinowska</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Wilk</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Hanna Król</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
   </si>
   <si>
     <t>Mikołaj Szymański</t>
   </si>
   <si>
-    <t>Jakub Mazur</t>
-  </si>
-  <si>
-    <t>Wojciech Woźniak</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 38 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>01.09.1992</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>04.08.1989</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>28.01.1987</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>05.07.1975</t>
-  </si>
-  <si>
-    <t>Maja Olszewska</t>
-  </si>
-  <si>
-    <t>22.10.1992</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>26.08.1976</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>20.10.2002</t>
-  </si>
-  <si>
-    <t>Filip Grabowski</t>
-  </si>
-  <si>
-    <t>05.04.1978</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalski</t>
-  </si>
-  <si>
-    <t>27.07.1980</t>
-  </si>
-  <si>
-    <t>Julia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>11.03.1986</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>06.03.1976</t>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
+  </si>
+  <si>
+    <t>Antoni Jankowski</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>Wojciech Krawczyk</t>
   </si>
   <si>
-    <t>13.06.1994</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>13.02.2002</t>
-  </si>
-  <si>
-    <t>Amelia Jaworska</t>
-  </si>
-  <si>
-    <t>19.12.1998</t>
-  </si>
-  <si>
-    <t>Wojciech Kamiński</t>
-  </si>
-  <si>
-    <t>08.12.1996</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Zuzanna Czarnecka</t>
+  </si>
+  <si>
+    <t>Antoni Kaczmarek</t>
+  </si>
+  <si>
+    <t>Filip Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -490,145 +500,163 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>śląskie</t>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
   </si>
   <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -700,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -759,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -770,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1083,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1188,16 +1209,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1209,19 +1230,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1230,19 +1251,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1251,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1272,13 +1293,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
         <v>6</v>
@@ -1293,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1305,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1314,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1335,19 +1356,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1362,13 +1383,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1377,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
         <v>6</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1398,16 +1419,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
@@ -1419,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1444,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1477,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1497,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1507,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1537,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.9</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.6</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>22.7</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.3</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3.7</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13.9</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.7</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1646,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1662,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1687,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1715,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>25.99</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7.59</v>
       </c>
       <c r="C15" s="3">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>19.73</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8.54</v>
       </c>
       <c r="C16" s="3">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>27.050000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>28.29</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>19.7</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13.95</v>
       </c>
       <c r="C18" s="3">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>9.31</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14.74</v>
       </c>
       <c r="C19" s="3">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1802,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1811,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>25.81</v>
       </c>
       <c r="C24" s="3">
-        <v>48</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28.98</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>27.86</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>25.85</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>10.15</v>
       </c>
       <c r="C26" s="3">
-        <v>39</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>30.97</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>27.61</v>
       </c>
       <c r="C27" s="3">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>6.65</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27.24</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1898,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1907,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>24.68</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2.52</v>
       </c>
       <c r="C33" s="3">
-        <v>13</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1.7</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.63</v>
       </c>
       <c r="C34" s="3">
-        <v>21</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.92</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6.85</v>
       </c>
       <c r="C35" s="3">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>30.15</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>20.18</v>
       </c>
       <c r="C36" s="3">
-        <v>36</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2.84</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>27.19</v>
       </c>
       <c r="C37" s="3">
-        <v>38</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2009,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,111 +2067,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2144,28 +2179,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2176,31 +2211,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
       <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2208,31 +2243,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2240,25 +2275,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
@@ -2272,31 +2307,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2304,16 +2339,16 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2328,30 +2363,46 @@
         <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2362,14 +2413,30 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,10 +2449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,238 +2463,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2522</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6590</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6199</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8188</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="7">
-        <v>14490</v>
+      <c r="B14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8491</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4086</v>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13790</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7772</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6096</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3422</v>
+        <v>114</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6643</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3301</v>
+        <v>115</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2726</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9897</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4301</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3869</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5934</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C21" s="8">
+        <v>13570</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8406</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4457</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6518</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2644,10 +2689,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>137</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>155</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>142</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>167</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>196</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>175</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>163</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>177</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>164</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>155</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2662,86 +2882,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>138</v>
+      <c r="A1" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2749,22 +2969,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1436</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1666</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="8">
+        <v>721</v>
+      </c>
+      <c r="E16" s="8">
+        <v>952</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2772,22 +2992,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1477</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1713</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1030</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1360</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2795,22 +3015,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1490</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1743</v>
+        <v>168</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1284</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2818,22 +3038,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1284</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1438</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="8">
+        <v>988</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1136</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2841,22 +3061,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1222</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1491</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1463</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1609</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2864,22 +3084,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>683</v>
-      </c>
-      <c r="E21" s="7">
-        <v>902</v>
+        <v>178</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1048</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1237</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2887,22 +3107,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1187</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1543</v>
+        <v>164</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1167</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1529</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2910,22 +3130,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1259</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1637</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>651</v>
+      </c>
+      <c r="E23" s="8">
+        <v>859</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2933,22 +3153,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1447</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1592</v>
+        <v>184</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1121</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1558</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2956,22 +3176,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1019</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1386</v>
+      <c r="D25" s="8">
+        <v>1225</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1666</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2979,22 +3199,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1211</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1356</v>
+        <v>189</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1388</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1791</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3002,22 +3222,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1163</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1593</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1203</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1600</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3025,22 +3245,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7">
-        <v>899</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1169</v>
+        <v>175</v>
+      </c>
+      <c r="D28" s="8">
+        <v>731</v>
+      </c>
+      <c r="E28" s="8">
+        <v>811</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3048,22 +3268,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1129</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1423</v>
+        <v>189</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1442</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1831</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3071,22 +3291,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="7">
-        <v>743</v>
-      </c>
-      <c r="E30" s="7">
-        <v>996</v>
+        <v>175</v>
+      </c>
+      <c r="D30" s="8">
+        <v>752</v>
+      </c>
+      <c r="E30" s="8">
+        <v>827</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3094,22 +3314,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="7">
-        <v>760</v>
-      </c>
-      <c r="E31" s="7">
-        <v>996</v>
+        <v>197</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1390</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1877</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3117,22 +3337,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1258</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1736</v>
+        <v>199</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1309</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1780</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3140,22 +3360,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1171</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1417</v>
+        <v>200</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1278</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1546</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3163,22 +3383,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1498</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1858</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="8">
+        <v>606</v>
+      </c>
+      <c r="E34" s="8">
+        <v>751</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3186,22 +3406,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1193</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1527</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>972</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1108</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3209,22 +3429,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1577</v>
+        <v>203</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1123</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1325</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3232,22 +3452,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1381</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1906</v>
+        <v>178</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2059</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3255,22 +3475,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1711</v>
+        <v>204</v>
+      </c>
+      <c r="D38" s="8">
+        <v>842</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1103</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3278,22 +3498,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1192</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1454</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="8">
+        <v>583</v>
+      </c>
+      <c r="E39" s="8">
+        <v>670</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3301,22 +3521,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="7">
-        <v>608</v>
-      </c>
-      <c r="E40" s="7">
-        <v>687</v>
+        <v>207</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1166</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1306</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3324,22 +3544,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1149</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1425</v>
+        <v>164</v>
+      </c>
+      <c r="D41" s="8">
+        <v>804</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1005</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3347,22 +3567,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1118</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1297</v>
+        <v>200</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1021</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1256</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3370,58 +3590,104 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="7">
-        <v>572</v>
-      </c>
-      <c r="E43" s="7">
-        <v>761</v>
+        <v>208</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1116</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1406</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="8">
+        <v>834</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1043</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1469</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
